--- a/biology/Zoologie/Apostolepis_nigrolineata/Apostolepis_nigrolineata.xlsx
+++ b/biology/Zoologie/Apostolepis_nigrolineata/Apostolepis_nigrolineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apostolepis nigrolineata est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apostolepis nigrolineata est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Guyane, au Guyana et au Brésil au Ceará, au Maranhão, au Pará, au Roraima, au Rondônia et en Amazonas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Guyane, au Guyana et au Brésil au Ceará, au Maranhão, au Pará, au Roraima, au Rondônia et en Amazonas.
 Sa présence en Bolivie est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
